--- a/Evaluation/Results/RQ2/EnsembleAccuracyInconclu.xlsx
+++ b/Evaluation/Results/RQ2/EnsembleAccuracyInconclu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrdad\Documents\rabbitrun\meetings\Paper 3 - GenTC\github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7353DC-E559-4A10-B78C-8A54F23A7E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286A0D49-DE1D-4BCB-A1B6-EB75DA9F5489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5735,9 +5735,6 @@
     <t>Router1</t>
   </si>
   <si>
-    <t>AP-SNG</t>
-  </si>
-  <si>
     <t>(0.0, 0.54, 0.54, 0.445, 0.015)</t>
   </si>
   <si>
@@ -5892,6 +5889,9 @@
   </si>
   <si>
     <t>(0.695, 0.6721311475409836, 0.205, 0.045, 0.055)</t>
+  </si>
+  <si>
+    <t>AP-DHB</t>
   </si>
 </sst>
 </file>
@@ -6244,7 +6244,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E194" sqref="E194"/>
+      <selection pane="bottomLeft" activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -13075,70 +13075,70 @@
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
-        <v>1897</v>
+        <v>1949</v>
       </c>
       <c r="B170" t="s">
         <v>1672</v>
       </c>
       <c r="C170" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D170" t="s">
         <v>1898</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>1899</v>
       </c>
-      <c r="E170" t="s">
-        <v>1900</v>
-      </c>
       <c r="F170" t="s">
+        <v>1897</v>
+      </c>
+      <c r="G170" t="s">
+        <v>1897</v>
+      </c>
+      <c r="H170" t="s">
+        <v>1899</v>
+      </c>
+      <c r="I170" t="s">
+        <v>1897</v>
+      </c>
+      <c r="J170" t="s">
+        <v>1897</v>
+      </c>
+      <c r="K170" t="s">
         <v>1898</v>
       </c>
-      <c r="G170" t="s">
-        <v>1898</v>
-      </c>
-      <c r="H170" t="s">
-        <v>1900</v>
-      </c>
-      <c r="I170" t="s">
-        <v>1898</v>
-      </c>
-      <c r="J170" t="s">
-        <v>1898</v>
-      </c>
-      <c r="K170" t="s">
+      <c r="L170" t="s">
         <v>1899</v>
       </c>
-      <c r="L170" t="s">
-        <v>1900</v>
-      </c>
       <c r="M170" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="N170" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="O170" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="P170" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="Q170" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="R170" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="S170" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="T170" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="U170" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="V170" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="X170">
         <v>0</v>
@@ -13161,64 +13161,64 @@
         <v>1696</v>
       </c>
       <c r="C172" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E172" t="s">
         <v>1901</v>
       </c>
-      <c r="D172" t="s">
+      <c r="F172" t="s">
+        <v>1902</v>
+      </c>
+      <c r="G172" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H172" t="s">
         <v>1901</v>
       </c>
-      <c r="E172" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F172" t="s">
+      <c r="I172" t="s">
         <v>1903</v>
       </c>
-      <c r="G172" t="s">
+      <c r="J172" t="s">
+        <v>1900</v>
+      </c>
+      <c r="K172" t="s">
+        <v>1900</v>
+      </c>
+      <c r="L172" t="s">
         <v>1901</v>
       </c>
-      <c r="H172" t="s">
-        <v>1902</v>
-      </c>
-      <c r="I172" t="s">
-        <v>1904</v>
-      </c>
-      <c r="J172" t="s">
+      <c r="M172" t="s">
         <v>1901</v>
       </c>
-      <c r="K172" t="s">
+      <c r="N172" t="s">
+        <v>1900</v>
+      </c>
+      <c r="O172" t="s">
+        <v>1900</v>
+      </c>
+      <c r="P172" t="s">
+        <v>1900</v>
+      </c>
+      <c r="Q172" t="s">
         <v>1901</v>
       </c>
-      <c r="L172" t="s">
-        <v>1902</v>
-      </c>
-      <c r="M172" t="s">
-        <v>1902</v>
-      </c>
-      <c r="N172" t="s">
+      <c r="R172" t="s">
+        <v>1900</v>
+      </c>
+      <c r="S172" t="s">
         <v>1901</v>
       </c>
-      <c r="O172" t="s">
-        <v>1901</v>
-      </c>
-      <c r="P172" t="s">
-        <v>1901</v>
-      </c>
-      <c r="Q172" t="s">
-        <v>1902</v>
-      </c>
-      <c r="R172" t="s">
-        <v>1901</v>
-      </c>
-      <c r="S172" t="s">
-        <v>1902</v>
-      </c>
       <c r="T172" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="U172" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="V172" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="X172">
         <v>0</v>
@@ -13241,64 +13241,64 @@
         <v>1673</v>
       </c>
       <c r="C174" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E174" t="s">
         <v>1905</v>
       </c>
-      <c r="D174" t="s">
+      <c r="F174" t="s">
+        <v>1904</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1904</v>
+      </c>
+      <c r="I174" t="s">
+        <v>1904</v>
+      </c>
+      <c r="J174" t="s">
+        <v>1904</v>
+      </c>
+      <c r="K174" t="s">
+        <v>1904</v>
+      </c>
+      <c r="L174" t="s">
         <v>1905</v>
       </c>
-      <c r="E174" t="s">
-        <v>1906</v>
-      </c>
-      <c r="F174" t="s">
+      <c r="M174" t="s">
         <v>1905</v>
       </c>
-      <c r="G174" t="s">
+      <c r="N174" t="s">
+        <v>1904</v>
+      </c>
+      <c r="O174" t="s">
+        <v>1904</v>
+      </c>
+      <c r="P174" t="s">
+        <v>1904</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>1904</v>
+      </c>
+      <c r="R174" t="s">
         <v>1905</v>
       </c>
-      <c r="H174" t="s">
+      <c r="S174" t="s">
         <v>1905</v>
       </c>
-      <c r="I174" t="s">
-        <v>1905</v>
-      </c>
-      <c r="J174" t="s">
-        <v>1905</v>
-      </c>
-      <c r="K174" t="s">
-        <v>1905</v>
-      </c>
-      <c r="L174" t="s">
-        <v>1906</v>
-      </c>
-      <c r="M174" t="s">
-        <v>1906</v>
-      </c>
-      <c r="N174" t="s">
-        <v>1905</v>
-      </c>
-      <c r="O174" t="s">
-        <v>1905</v>
-      </c>
-      <c r="P174" t="s">
-        <v>1905</v>
-      </c>
-      <c r="Q174" t="s">
-        <v>1905</v>
-      </c>
-      <c r="R174" t="s">
-        <v>1906</v>
-      </c>
-      <c r="S174" t="s">
-        <v>1906</v>
-      </c>
       <c r="T174" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="U174" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="V174" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="X174">
         <v>0</v>
@@ -13321,64 +13321,64 @@
         <v>1674</v>
       </c>
       <c r="C176" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D176" t="s">
         <v>1907</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
         <v>1908</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
         <v>1909</v>
       </c>
-      <c r="F176" t="s">
+      <c r="G176" t="s">
         <v>1910</v>
       </c>
-      <c r="G176" t="s">
+      <c r="H176" t="s">
         <v>1911</v>
       </c>
-      <c r="H176" t="s">
+      <c r="I176" t="s">
         <v>1912</v>
       </c>
-      <c r="I176" t="s">
+      <c r="J176" t="s">
         <v>1913</v>
       </c>
-      <c r="J176" t="s">
+      <c r="K176" t="s">
         <v>1914</v>
       </c>
-      <c r="K176" t="s">
+      <c r="L176" t="s">
         <v>1915</v>
       </c>
-      <c r="L176" t="s">
+      <c r="M176" t="s">
         <v>1916</v>
       </c>
-      <c r="M176" t="s">
+      <c r="N176" t="s">
         <v>1917</v>
       </c>
-      <c r="N176" t="s">
+      <c r="O176" t="s">
         <v>1918</v>
       </c>
-      <c r="O176" t="s">
+      <c r="P176" t="s">
         <v>1919</v>
       </c>
-      <c r="P176" t="s">
+      <c r="Q176" t="s">
         <v>1920</v>
       </c>
-      <c r="Q176" t="s">
+      <c r="R176" t="s">
         <v>1921</v>
       </c>
-      <c r="R176" t="s">
+      <c r="S176" t="s">
         <v>1922</v>
       </c>
-      <c r="S176" t="s">
+      <c r="T176" t="s">
         <v>1923</v>
       </c>
-      <c r="T176" t="s">
+      <c r="U176" t="s">
         <v>1924</v>
       </c>
-      <c r="U176" t="s">
+      <c r="V176" t="s">
         <v>1925</v>
-      </c>
-      <c r="V176" t="s">
-        <v>1926</v>
       </c>
       <c r="X176">
         <v>0.28949999999999998</v>
@@ -13401,64 +13401,64 @@
         <v>1675</v>
       </c>
       <c r="C178" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D178" t="s">
         <v>1927</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>1928</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>1929</v>
       </c>
-      <c r="F178" t="s">
+      <c r="G178" t="s">
         <v>1930</v>
       </c>
-      <c r="G178" t="s">
+      <c r="H178" t="s">
         <v>1931</v>
       </c>
-      <c r="H178" t="s">
+      <c r="I178" t="s">
+        <v>1930</v>
+      </c>
+      <c r="J178" t="s">
         <v>1932</v>
       </c>
-      <c r="I178" t="s">
+      <c r="K178" t="s">
+        <v>1933</v>
+      </c>
+      <c r="L178" t="s">
         <v>1931</v>
       </c>
-      <c r="J178" t="s">
-        <v>1933</v>
-      </c>
-      <c r="K178" t="s">
-        <v>1934</v>
-      </c>
-      <c r="L178" t="s">
-        <v>1932</v>
-      </c>
       <c r="M178" t="s">
+        <v>1930</v>
+      </c>
+      <c r="N178" t="s">
+        <v>1930</v>
+      </c>
+      <c r="O178" t="s">
+        <v>1930</v>
+      </c>
+      <c r="P178" t="s">
+        <v>1927</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>1930</v>
+      </c>
+      <c r="R178" t="s">
+        <v>1930</v>
+      </c>
+      <c r="S178" t="s">
+        <v>1927</v>
+      </c>
+      <c r="T178" t="s">
         <v>1931</v>
       </c>
-      <c r="N178" t="s">
-        <v>1931</v>
-      </c>
-      <c r="O178" t="s">
-        <v>1931</v>
-      </c>
-      <c r="P178" t="s">
-        <v>1928</v>
-      </c>
-      <c r="Q178" t="s">
-        <v>1931</v>
-      </c>
-      <c r="R178" t="s">
-        <v>1931</v>
-      </c>
-      <c r="S178" t="s">
-        <v>1928</v>
-      </c>
-      <c r="T178" t="s">
-        <v>1932</v>
-      </c>
       <c r="U178" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="V178" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="X178">
         <v>0.44124999999999998</v>
@@ -13481,64 +13481,64 @@
         <v>1676</v>
       </c>
       <c r="C180" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D180" t="s">
         <v>1935</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>1936</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>1937</v>
       </c>
-      <c r="F180" t="s">
+      <c r="G180" t="s">
         <v>1938</v>
       </c>
-      <c r="G180" t="s">
+      <c r="H180" t="s">
         <v>1939</v>
       </c>
-      <c r="H180" t="s">
+      <c r="I180" t="s">
+        <v>1936</v>
+      </c>
+      <c r="J180" t="s">
         <v>1940</v>
       </c>
-      <c r="I180" t="s">
-        <v>1937</v>
-      </c>
-      <c r="J180" t="s">
+      <c r="K180" t="s">
         <v>1941</v>
       </c>
-      <c r="K180" t="s">
+      <c r="L180" t="s">
         <v>1942</v>
       </c>
-      <c r="L180" t="s">
+      <c r="M180" t="s">
         <v>1943</v>
       </c>
-      <c r="M180" t="s">
+      <c r="N180" t="s">
+        <v>1938</v>
+      </c>
+      <c r="O180" t="s">
         <v>1944</v>
       </c>
-      <c r="N180" t="s">
-        <v>1939</v>
-      </c>
-      <c r="O180" t="s">
+      <c r="P180" t="s">
+        <v>1935</v>
+      </c>
+      <c r="Q180" t="s">
         <v>1945</v>
       </c>
-      <c r="P180" t="s">
-        <v>1936</v>
-      </c>
-      <c r="Q180" t="s">
+      <c r="R180" t="s">
         <v>1946</v>
       </c>
-      <c r="R180" t="s">
-        <v>1947</v>
-      </c>
       <c r="S180" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="T180" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="U180" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="V180" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="X180">
         <v>0.70574999999999988</v>
@@ -13561,64 +13561,64 @@
         <v>0.8</v>
       </c>
       <c r="C182" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1936</v>
+      </c>
+      <c r="F182" t="s">
+        <v>1937</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1938</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1939</v>
+      </c>
+      <c r="I182" t="s">
+        <v>1936</v>
+      </c>
+      <c r="J182" t="s">
+        <v>1940</v>
+      </c>
+      <c r="K182" t="s">
         <v>1948</v>
       </c>
-      <c r="D182" t="s">
-        <v>1939</v>
-      </c>
-      <c r="E182" t="s">
-        <v>1937</v>
-      </c>
-      <c r="F182" t="s">
+      <c r="L182" t="s">
+        <v>1942</v>
+      </c>
+      <c r="M182" t="s">
         <v>1938</v>
       </c>
-      <c r="G182" t="s">
-        <v>1939</v>
-      </c>
-      <c r="H182" t="s">
-        <v>1940</v>
-      </c>
-      <c r="I182" t="s">
-        <v>1937</v>
-      </c>
-      <c r="J182" t="s">
-        <v>1941</v>
-      </c>
-      <c r="K182" t="s">
-        <v>1949</v>
-      </c>
-      <c r="L182" t="s">
-        <v>1943</v>
-      </c>
-      <c r="M182" t="s">
-        <v>1939</v>
-      </c>
       <c r="N182" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="O182" t="s">
+        <v>1944</v>
+      </c>
+      <c r="P182" t="s">
+        <v>1938</v>
+      </c>
+      <c r="Q182" t="s">
         <v>1945</v>
       </c>
-      <c r="P182" t="s">
-        <v>1939</v>
-      </c>
-      <c r="Q182" t="s">
+      <c r="R182" t="s">
         <v>1946</v>
       </c>
-      <c r="R182" t="s">
-        <v>1947</v>
-      </c>
       <c r="S182" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="T182" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="U182" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="V182" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="X182">
         <v>0.72074999999999989</v>
@@ -13641,64 +13641,64 @@
         <v>0.85</v>
       </c>
       <c r="C184" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D184" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1936</v>
+      </c>
+      <c r="F184" t="s">
+        <v>1938</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1938</v>
+      </c>
+      <c r="H184" t="s">
         <v>1939</v>
       </c>
-      <c r="E184" t="s">
-        <v>1937</v>
-      </c>
-      <c r="F184" t="s">
-        <v>1939</v>
-      </c>
-      <c r="G184" t="s">
-        <v>1939</v>
-      </c>
-      <c r="H184" t="s">
+      <c r="I184" t="s">
+        <v>1936</v>
+      </c>
+      <c r="J184" t="s">
         <v>1940</v>
       </c>
-      <c r="I184" t="s">
-        <v>1937</v>
-      </c>
-      <c r="J184" t="s">
-        <v>1941</v>
-      </c>
       <c r="K184" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="L184" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="M184" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="N184" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="O184" t="s">
+        <v>1944</v>
+      </c>
+      <c r="P184" t="s">
+        <v>1938</v>
+      </c>
+      <c r="Q184" t="s">
         <v>1945</v>
       </c>
-      <c r="P184" t="s">
-        <v>1939</v>
-      </c>
-      <c r="Q184" t="s">
+      <c r="R184" t="s">
         <v>1946</v>
       </c>
-      <c r="R184" t="s">
-        <v>1947</v>
-      </c>
       <c r="S184" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="T184" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="U184" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="V184" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="X184">
         <v>0.72349999999999981</v>
@@ -13721,64 +13721,64 @@
         <v>0.9</v>
       </c>
       <c r="C186" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D186" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E186" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F186" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="G186" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="H186" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="I186" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="J186" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="K186" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="L186" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="M186" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="N186" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="O186" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="P186" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="Q186" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="R186" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="S186" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="T186" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="U186" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="V186" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="X186">
         <v>0.73149999999999982</v>
@@ -13801,64 +13801,64 @@
         <v>0.95</v>
       </c>
       <c r="C188" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D188" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E188" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F188" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="G188" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="H188" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="I188" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="J188" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="K188" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="L188" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="M188" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="N188" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="O188" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="P188" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="Q188" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="R188" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="S188" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="T188" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="U188" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="V188" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="X188">
         <v>0.73299999999999976</v>
@@ -13881,64 +13881,64 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D190" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="E190" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="F190" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="G190" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="H190" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="I190" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="J190" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="K190" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="L190" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="M190" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="N190" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="O190" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="P190" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="Q190" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="R190" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="S190" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="T190" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="U190" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="V190" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="X190">
         <v>0.73299999999999976</v>
